--- a/MonitoringTODOs.xlsx
+++ b/MonitoringTODOs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\DistributedMonitoringOnceAgain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628D50D2-4E4B-47A1-870C-394A132CA98A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEB797B-B7B7-49FC-8815-577A02B23747}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{91B85CE4-EF0A-426E-BAF4-9725791231AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Project</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Entropy Upper Bound &amp; Lower Bound - Unit Test</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>I presume it works fine due to previous work</t>
   </si>
   <si>
@@ -88,6 +85,21 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>Entropy Bottle Neck</t>
+  </si>
+  <si>
+    <t>Binary search of INCREASE ENTROPY</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>PCA - Implement</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
@@ -385,20 +397,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +728,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,11 +740,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -751,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -762,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
@@ -773,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
@@ -784,10 +796,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -795,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -806,10 +818,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -824,41 +836,53 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>

--- a/MonitoringTODOs.xlsx
+++ b/MonitoringTODOs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\DistributedMonitoringOnceAgain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEB797B-B7B7-49FC-8815-577A02B23747}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8201CF09-4937-409E-A587-C60EBCE46D90}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{91B85CE4-EF0A-426E-BAF4-9725791231AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Project</t>
   </si>
@@ -63,9 +63,6 @@
     <t>BagOfWordsDataParser - not done</t>
   </si>
   <si>
-    <t>Future Code</t>
-  </si>
-  <si>
     <t>Entropy</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>todo</t>
+  </si>
+  <si>
+    <t>Go through # messages + # channels + bandwidth</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +171,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -397,11 +391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,7 +717,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,11 +729,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -763,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
@@ -774,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
@@ -785,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
@@ -796,21 +785,21 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -818,76 +807,82 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="18" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>

--- a/MonitoringTODOs.xlsx
+++ b/MonitoringTODOs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\DistributedMonitoringOnceAgain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8201CF09-4937-409E-A587-C60EBCE46D90}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F81704-B29C-4BCC-99CE-57FE1CFB73E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{91B85CE4-EF0A-426E-BAF4-9725791231AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Project</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>Go through # messages + # channels + bandwidth</t>
+  </si>
+  <si>
+    <t>Run on dense changes</t>
+  </si>
+  <si>
+    <t>Run PCA</t>
+  </si>
+  <si>
+    <t>Compare to Arnon's Data</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +178,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -360,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -386,11 +389,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,7 +715,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,11 +727,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -863,41 +861,53 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>

--- a/MonitoringTODOs.xlsx
+++ b/MonitoringTODOs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\DistributedMonitoringOnceAgain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F81704-B29C-4BCC-99CE-57FE1CFB73E9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF5F5A0-E707-4B81-B694-E11608B626CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{91B85CE4-EF0A-426E-BAF4-9725791231AC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Project</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Compare to Arnon's Data</t>
+  </si>
+  <si>
+    <t>Inner Product</t>
   </si>
 </sst>
 </file>
@@ -712,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEDDF57-A7E5-41CC-B97C-86CE34F5E6D6}">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,21 +886,25 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -906,18 +913,27 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="4"/>
+    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
